--- a/data/income_statement/2digits/size/33_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/33_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>33-Repair and installation of machinery and equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>33-Repair and installation of machinery and equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,890 +841,1005 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>699335.4471100001</v>
+        <v>711494.9071900001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>764637.58341</v>
+        <v>751762.19065</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1059743.80557</v>
+        <v>1073065.06424</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1165789.80484</v>
+        <v>1177502.41933</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1359792.49206</v>
+        <v>1428345.81847</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2144302.21432</v>
+        <v>2307578.64399</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>2264667.13457</v>
+        <v>2468955.01872</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2654282.38211</v>
+        <v>2856395.1955</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>4145224.21667</v>
+        <v>4323260.22344</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>4683627.27337</v>
+        <v>4869190.38834</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>4713295.25579</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4752645.431299999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>7756324.333</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>564055.64755</v>
+        <v>557166.43813</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>582778.9939300001</v>
+        <v>553960.6769</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>908429.33959</v>
+        <v>906582.4733000001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>959719.82025</v>
+        <v>951765.27578</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1076596.64797</v>
+        <v>1095276.9556</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1724960.11868</v>
+        <v>1787020.41886</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1941361.36527</v>
+        <v>2067136.9892</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2217019.28142</v>
+        <v>2315139.92508</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3589243.99795</v>
+        <v>3681477.18787</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3628295.67775</v>
+        <v>3748933.40351</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3494680.18436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>3481109.1728</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5750535.472</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>128548.70468</v>
+        <v>147865.72997</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>172144.7246</v>
+        <v>188735.18774</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>138058.65693</v>
+        <v>155465.6334</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>183978.0771</v>
+        <v>208598.00097</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>261489.24755</v>
+        <v>318344.78554</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>392581.91189</v>
+        <v>469355.4406500001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>289362.05239</v>
+        <v>372219.86025</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>403620.09808</v>
+        <v>503187.3247999999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>503723.15502</v>
+        <v>583274.26354</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>984914.67181</v>
+        <v>1041013.03761</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1152266.23172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1218685.07647</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1928828.761</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>6731.09488</v>
+        <v>6462.73909</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9713.864880000001</v>
+        <v>9066.326010000001</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>13255.80905</v>
+        <v>11016.95754</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>22091.90749</v>
+        <v>17139.14258</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>21706.59654</v>
+        <v>14724.07733</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>26760.18375</v>
+        <v>51202.78448</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>33943.71691</v>
+        <v>29598.16927</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>33643.00261</v>
+        <v>38067.94562000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>52257.06370000001</v>
+        <v>58508.77203</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>70416.92381000001</v>
+        <v>79243.94722</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>66348.83971</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>52851.18203</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>76960.10000000001</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2622.47263</v>
+        <v>2947.52623</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>20074.78814</v>
+        <v>19689.62933</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>13477.26637</v>
+        <v>14906.20213</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>14771.25427</v>
+        <v>14649.06012</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>15949.83633</v>
+        <v>17036.30609</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>24147.20357</v>
+        <v>26751.54386</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>28953.63985</v>
+        <v>29281.0952</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>33296.29337</v>
+        <v>34990.50211</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>112090.1681</v>
+        <v>110970.99069</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>74060.11030000001</v>
+        <v>58029.42498</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>77016.67600000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>86998.77063</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>117795.58</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1199.28934</v>
+        <v>1294.78598</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>15048.33744</v>
+        <v>14652.75346</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>9313.76794</v>
+        <v>10796.22581</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>8519.24473</v>
+        <v>8862.411310000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>10071.69604</v>
+        <v>9438.019620000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>15151.90585</v>
+        <v>17767.24184</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>19847.76713</v>
+        <v>18919.39667</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>27928.46242</v>
+        <v>28810.64011</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>98902.33936</v>
+        <v>99457.34812000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>62383.72637</v>
+        <v>47462.77678</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>65676.52597</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>56240.50856</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>93571.125</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1214.33838</v>
+        <v>1472.21534</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>4898.413939999999</v>
+        <v>4887.39603</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>3841.33451</v>
+        <v>3841.30909</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>6042.94121</v>
+        <v>5569.67967</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>5295.26108</v>
+        <v>5206.34788</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>8442.06114</v>
+        <v>8494.61688</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8453.356250000001</v>
+        <v>9734.127269999999</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4773.343190000001</v>
+        <v>5625.276400000001</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>11227.83759</v>
+        <v>9189.81299</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>10548.52081</v>
+        <v>9754.345720000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>10249.35838</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>30108.48636</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>19619.778</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>208.84491</v>
+        <v>180.52491</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>128.03676</v>
+        <v>149.47984</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>322.16392</v>
+        <v>268.66723</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>209.06833</v>
+        <v>216.96914</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>582.8792099999999</v>
+        <v>2391.93859</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>553.2365800000001</v>
+        <v>489.68514</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>652.51647</v>
+        <v>627.5712600000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>594.48776</v>
+        <v>554.5856</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>1959.99115</v>
+        <v>2323.82958</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1127.86312</v>
+        <v>812.3024799999999</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1090.79165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>649.77571</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4604.677</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>696712.97448</v>
+        <v>708547.3809599999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>744562.79527</v>
+        <v>732072.5613200001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1046266.5392</v>
+        <v>1058158.86211</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1151018.55057</v>
+        <v>1162853.35921</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1343842.65573</v>
+        <v>1411309.51238</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2120155.01075</v>
+        <v>2280827.10013</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>2235713.49472</v>
+        <v>2439673.92352</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2620986.08874</v>
+        <v>2821404.69339</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>4033134.04857</v>
+        <v>4212289.23275</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>4609567.16307</v>
+        <v>4811160.963359999</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>4636278.57979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4665646.66067</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>7638528.753</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>565712.82859</v>
+        <v>569611.85954</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>609447.6735800001</v>
+        <v>615769.8128</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>859779.37563</v>
+        <v>864139.9792899999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>924247.82129</v>
+        <v>942119.9765099999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>1075090.69807</v>
+        <v>1161195.52932</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1733151.36886</v>
+        <v>1828813.94119</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>1848189.69753</v>
+        <v>1999922.25906</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>2137517.61606</v>
+        <v>2307656.50085</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>3336212.81672</v>
+        <v>3489858.24605</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3866188.99693</v>
+        <v>3965812.01437</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3766240.51876</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3864252.55838</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>6108756.696</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>79399.65578</v>
+        <v>76751.83378</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>104233.91445</v>
+        <v>98059.74361000002</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>124465.48153</v>
+        <v>124271.66828</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>125013.35156</v>
+        <v>128457.39223</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>168877.44872</v>
+        <v>192599.09077</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>199205.56876</v>
+        <v>203802.45343</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>233443.54055</v>
+        <v>252002.99674</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>368764.66</v>
+        <v>425916.18188</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>515044.89285</v>
+        <v>526612.8904499999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>701712.8846100001</v>
+        <v>722893.1820800001</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>565405.02178</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>601151.3703300001</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>857477.125</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>177978.89285</v>
+        <v>171813.34665</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>156645.9582</v>
+        <v>152603.13725</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>278947.1891</v>
+        <v>263151.41195</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>292450.92989</v>
+        <v>262048.15953</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>290158.86195</v>
+        <v>286695.7044099999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>522665.82572</v>
+        <v>488838.40138</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>575145.1786100001</v>
+        <v>579029.0825499999</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>696149.8909700001</v>
+        <v>660372.89729</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1299846.83876</v>
+        <v>1307524.41343</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>979545.77567</v>
+        <v>892061.5613099999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>930919.8128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>887010.68876</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2081830.447</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>304492.62329</v>
+        <v>320624.59818</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>347925.79387</v>
+        <v>364211.39677</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>455354.36219</v>
+        <v>475293.49129</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>505804.56397</v>
+        <v>549336.8015299999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>601796.05891</v>
+        <v>667729.6545800001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1001035.83418</v>
+        <v>1118755.03621</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>1022171.37451</v>
+        <v>1148041.2983</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1060035.74552</v>
+        <v>1209066.61368</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1499330.52585</v>
+        <v>1634822.76311</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>2162721.9974</v>
+        <v>2329772.33681</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>2254900.92742</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2358585.97857</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3161039.78</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3841.65667</v>
+        <v>422.08093</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>642.00706</v>
+        <v>895.53517</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1012.34281</v>
+        <v>1423.40777</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>978.97587</v>
+        <v>2277.62322</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>14258.32849</v>
+        <v>14171.07956</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>10244.1402</v>
+        <v>17418.05017</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>17429.60386</v>
+        <v>20848.88147</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>12567.31957</v>
+        <v>12300.808</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>21990.55926</v>
+        <v>20898.17906</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>22208.33925</v>
+        <v>21084.93417</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>15014.75676</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>17504.52072</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>8409.343999999999</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>131000.14589</v>
+        <v>138935.52142</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>135115.12169</v>
+        <v>116302.74852</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>186487.16357</v>
+        <v>194018.88282</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>226770.72928</v>
+        <v>220733.3827</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>268751.95766</v>
+        <v>250113.98306</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>387003.64189</v>
+        <v>452013.15894</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>387523.79719</v>
+        <v>439751.66446</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>483468.4726799999</v>
+        <v>513748.19254</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>696921.23185</v>
+        <v>722430.9867</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>743378.16614</v>
+        <v>845348.9489900001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>870038.06103</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>801394.10229</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1529772.057</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>65649.69687999999</v>
+        <v>60551.09096</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>87829.61095999999</v>
+        <v>72661.95298999999</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>107293.5008</v>
+        <v>99880.76482</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>134287.2164</v>
+        <v>119516.98147</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>150576.41114</v>
+        <v>139802.18933</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>235573.49956</v>
+        <v>229096.43659</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>223755.79573</v>
+        <v>248967.36879</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>282115.88378</v>
+        <v>303896.58672</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>404388.4372</v>
+        <v>420322.19</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>439937.85076</v>
+        <v>445801.41112</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>512273.79059</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>474527.01252</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>734054.032</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>737.07213</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1278.19899</v>
+        <v>856.6555800000001</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>152.20285</v>
+        <v>829.89174</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>120.48294</v>
+        <v>659.7187999999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>3644.29073</v>
+        <v>4272.90004</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>13.40437</v>
+        <v>4942.29898</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>61.73346</v>
+        <v>5414.405870000001</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>7723.19426</v>
+        <v>12039.7066</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>4044.42225</v>
+        <v>9083.206880000002</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>7906.53746</v>
+        <v>7804.743439999999</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>5023.03435</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>3403.2273</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>5316.53</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>13770.25475</v>
+        <v>13289.12946</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>17105.06915</v>
+        <v>16106.02322</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>22040.74851</v>
+        <v>20572.08155</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>18349.77559</v>
+        <v>17208.52776</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>21698.39775</v>
+        <v>21959.56962</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>37296.03837</v>
+        <v>36742.27984</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>41436.59737999999</v>
+        <v>47827.46079</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>57915.91776999999</v>
+        <v>60219.6725</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>77449.56589</v>
+        <v>80893.14219</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>109007.42865</v>
+        <v>125022.15401</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>120963.26571</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>120015.27261</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>167713.274</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>51142.37</v>
+        <v>46524.88937</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>69446.34281999999</v>
+        <v>55699.27419</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>85100.54944</v>
+        <v>78478.79153</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>115816.95787</v>
+        <v>101648.73491</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>125233.72266</v>
+        <v>113569.71967</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>198264.05682</v>
+        <v>187411.85777</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>182257.46489</v>
+        <v>195725.50213</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>216476.77175</v>
+        <v>231637.20762</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>322894.44906</v>
+        <v>330345.84093</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>323023.88465</v>
+        <v>312974.51367</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>386287.49053</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>351108.51261</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>561024.228</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>65350.44901</v>
+        <v>78384.43046</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>47285.51072999999</v>
+        <v>43640.79553</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>79193.66277</v>
+        <v>94138.118</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>92483.51287999999</v>
+        <v>101216.40123</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>118175.54652</v>
+        <v>110311.79373</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>151430.14233</v>
+        <v>222916.72235</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>163768.00146</v>
+        <v>190784.29567</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>201352.5889</v>
+        <v>209851.60582</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>292532.79465</v>
+        <v>302108.7967</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>303440.31538</v>
+        <v>399547.53787</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>357764.27044</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>326867.08977</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>795718.025</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>36949.20027</v>
+        <v>59757.98976</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>55364.47067</v>
+        <v>48002.36388</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>59195.45803</v>
+        <v>69666.59752</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>54138.61964</v>
+        <v>47610.06424</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>131308.30701</v>
+        <v>287374.37485</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>144729.56942</v>
+        <v>230135.19621</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>163405.08471</v>
+        <v>410316.03589</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>156627.70887</v>
+        <v>243466.86136</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>278265.19882</v>
+        <v>300733.95486</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1336747.38005</v>
+        <v>1272667.92746</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>809570.4678000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>652556.24894</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1846088.851</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>159.77978</v>
+        <v>4538.30984</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>66.86313</v>
+        <v>8.14836</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>637.59586</v>
+        <v>427.00814</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>1108.06166</v>
+        <v>2051.92086</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>2290.85626</v>
+        <v>3790.05148</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>17811.5644</v>
+        <v>1680.78981</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>7722.86344</v>
+        <v>3901.45171</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>1669.43581</v>
+        <v>1287.91018</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>6653.40452</v>
+        <v>1027.04317</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1255.369</v>
+        <v>1540.873</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>3233.67625</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>2933.94292</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>3619.212</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>1787.23168</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>5016.612950000001</v>
+        <v>855.24802</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>1.85394</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>895.14923</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>2788.46553</v>
+        <v>4.61079</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3653.93712</v>
+        <v>108.842</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>0</v>
@@ -1835,94 +1851,109 @@
         <v>119</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>13616.51695</v>
+        <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>29601.41672</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2121.39456</v>
+        <v>6724.261350000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>2665.9433</v>
+        <v>3968.27347</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>4420.88383</v>
+        <v>6010.0902</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>6345.815680000001</v>
+        <v>8543.99891</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>7026.25667</v>
+        <v>6653.499599999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>9504.99012</v>
+        <v>10005.35356</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9703.017320000001</v>
+        <v>12290.06469</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7719.57562</v>
+        <v>11851.12607</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>14937.47482</v>
+        <v>18770.96894</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>20658.81559</v>
+        <v>22746.88182</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>16993.78704</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>21451.91996</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>28050.853</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>63.63484</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>242.81377</v>
+        <v>240.78144</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>401.38511</v>
+        <v>349.43313</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>111.0892</v>
+        <v>94.04141</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>312.38029</v>
+        <v>315.98572</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>125.74998</v>
+        <v>129.12656</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>126.64199</v>
+        <v>115.21515</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>120.09647</v>
+        <v>148.65263</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>25865.27018</v>
+        <v>21559.64504</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>11426.80178</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>16818.2678</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>10443.95475</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>34784.878</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>50.78983</v>
@@ -1931,121 +1962,136 @@
         <v>364.2839</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>905.3176699999999</v>
+        <v>1110.26344</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>2319.1219</v>
+        <v>757.0267299999999</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>844.5330799999999</v>
+        <v>845.4258599999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2515.07677</v>
+        <v>4090.57914</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1264.40936</v>
+        <v>1202.55574</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>2101.65308</v>
+        <v>2783.44416</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>3827.63064</v>
+        <v>5869.73842</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>6575.17434</v>
+        <v>7820.62038</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>4762.5732</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>4541.199060000001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>13369.314</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>124.25551</v>
+        <v>172.87878</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>106.43646</v>
+        <v>61.98193</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>132.91388</v>
+        <v>100.73948</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1549.98145</v>
+        <v>533.6475</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>318.21374</v>
+        <v>290.71364</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1111.40958</v>
+        <v>980.4296900000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>3143.44555</v>
+        <v>11086.27702</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>572.3518299999999</v>
+        <v>580.17221</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>436.4739</v>
+        <v>605.5197999999999</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>20136.79064</v>
+        <v>49.37004</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>2795.83991</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>2741.64115</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>7141.151</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>29570.69327</v>
+        <v>44703.1777</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>37081.59544999999</v>
+        <v>40622.99279</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>37550.22875</v>
+        <v>55888.11854</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>22767.80546</v>
+        <v>32066.69982</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>87812.51258999998</v>
+        <v>262417.42749</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>75318.27381999999</v>
+        <v>201171.65263</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>120601.86129</v>
+        <v>372525.25049</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>127751.50753</v>
+        <v>213209.73549</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>208090.39788</v>
+        <v>231768.72804</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>1201734.49315</v>
+        <v>1181670.78633</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>589507.7040599999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>535830.10248</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1691951.614</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>111.01671</v>
+        <v>108.90096</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
@@ -2069,16 +2115,21 @@
         <v>0</v>
       </c>
       <c r="L33" s="48" t="n">
-        <v>3.41214</v>
+        <v>0</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>9.35998</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>139.03</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>3071.4208</v>
+        <v>1717.70574</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>9708.905000000001</v>
+        <v>1771.75301</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>15145.27899</v>
+        <v>5779.09065</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>19041.59506</v>
+        <v>3562.72901</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>29914.17201</v>
+        <v>13055.74343</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>34688.56763000001</v>
+        <v>11968.42282</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>20780.5945</v>
+        <v>9132.96983</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>16693.08853</v>
+        <v>13605.82062</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>18335.54688</v>
+        <v>21013.31145</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>61340.00646</v>
+        <v>47412.59411</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>145847.84284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>74613.48862</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>67032.799</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>27898.5654</v>
+        <v>46566.697</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>41180.00559</v>
+        <v>46221.85002</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>50508.87729</v>
+        <v>57593.75132</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>32608.09112</v>
+        <v>39698.98378</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>107831.65275</v>
+        <v>239218.95367</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>93765.03454000001</v>
+        <v>189834.66709</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>154766.93487</v>
+        <v>329013.0188</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>169062.36557</v>
+        <v>189831.1194</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>246382.95701</v>
+        <v>255675.5847</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1260317.98898</v>
+        <v>1321545.89249</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>669642.2194599999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>573649.0656600001</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1732713.19</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>500.49695</v>
+        <v>249.60679</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>1190.47417</v>
+        <v>864.9788199999999</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>2095.5689</v>
+        <v>1746.4537</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>1999.12283</v>
+        <v>1858.79605</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5680.55024</v>
+        <v>4549.05781</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>818.8371699999999</v>
+        <v>2227.06128</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3633.91082</v>
+        <v>4073.74258</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>4861.61354</v>
+        <v>5129.696279999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>428.32942</v>
+        <v>5185.289</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>8361.017739999999</v>
+        <v>8360.25187</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4456.34966</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4560.21792</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>770.861</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>1886.45132</v>
+        <v>1444.32409</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>2522.5404</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>1733.19302</v>
+        <v>3014.06778</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>4425.321650000001</v>
+        <v>1799.50746</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>7390.34132</v>
+        <v>6928.77382</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>2440.16964</v>
+        <v>5652.3832</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>22606.32611</v>
+        <v>7190.603569999999</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>6754.1321</v>
+        <v>8717.81832</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>13781.25039</v>
+        <v>13811.51381</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>8001.61025</v>
+        <v>21732.66282</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>19776.19805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>22129.44143</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>11511.876</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>10.47685</v>
@@ -2282,79 +2358,89 @@
         <v>4.78191</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>80.80860000000001</v>
+        <v>82.52217</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>158.02431</v>
+        <v>225.33335</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>8.65958</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>99.47633999999999</v>
+        <v>5.30351</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>30.81695</v>
+        <v>5.0647</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>0.00373</v>
+        <v>1.40559</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>897.94377</v>
+        <v>273.16989</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>2506.27557</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>224.78236</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>1703.041</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>25020.75994</v>
+        <v>43909.18695</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>36404.02811</v>
+        <v>41583.21204</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>44773.69641999999</v>
+        <v>50362.97671</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>24288.64268</v>
+        <v>34933.45448000001</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>91861.27090999999</v>
+        <v>221459.24982</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>81070.69755000001</v>
+        <v>168076.60149</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>124286.28516</v>
+        <v>310887.34854</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>154717.9557</v>
+        <v>171536.40486</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>213154.64867</v>
+        <v>233453.63888</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1211990.23208</v>
+        <v>1283402.23921</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>590585.8864600001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>534159.21439</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1685519.337</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0.00049</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2381,16 +2467,21 @@
         <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>24.32972</v>
+        <v>1.144</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>904.6441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>11.22975</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>51.857</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2405,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>283.80683</v>
+        <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>480.37985</v>
+        <v>953.10232</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1058.181</v>
+        <v>1246.33685</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>1825.61035</v>
+        <v>2387.73096</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1736.97965</v>
+        <v>881.89244</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2607.02387</v>
+        <v>6273.21264</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>9272.685740000001</v>
+        <v>13810.14951</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4209.59583</v>
+        <v>6856.25941</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2728.6605</v>
+        <v>4260.79435</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>18120.78476</v>
+        <v>2951.97312</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>29434.52362</v>
+        <v>8049.59459</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>53694.35883</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>12564.17981</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>33156.218</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>19635.42484</v>
+        <v>15339.76446</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>17419.56166</v>
+        <v>13920.76958</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>19499.24608</v>
+        <v>20747.54355</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>20794.2014</v>
+        <v>27012.8725</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>21597.13181</v>
+        <v>113444.45448</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>35017.61558</v>
+        <v>95959.29483</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>45715.31324</v>
+        <v>161644.77743</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>55901.12136</v>
+        <v>112609.75434</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>74995.01209</v>
+        <v>87835.86884000001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>97017.46937999999</v>
+        <v>129709.91367</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>81569.60785</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>63985.01437</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>105862</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>19411.22373</v>
+        <v>13096.22501</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>16691.87954</v>
+        <v>13379.79245</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>19132.48032</v>
+        <v>20394.48271</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>20533.32056</v>
+        <v>26176.34771</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>21473.71973</v>
+        <v>32502.32657</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>33239.07058</v>
+        <v>37363.56572999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>42284.09384</v>
+        <v>47570.74337999999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>50658.59041</v>
+        <v>53150.97805</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>68332.91842</v>
+        <v>81917.36397000001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>93749.82367</v>
+        <v>120730.58187</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>67962.20153999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>59846.96191</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>102091.338</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>224.20111</v>
+        <v>2243.53945</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>727.6821199999999</v>
+        <v>540.97713</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>366.76576</v>
+        <v>353.06084</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>260.88084</v>
+        <v>836.5247900000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>123.41208</v>
+        <v>80942.12791</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>1778.545</v>
+        <v>58595.7291</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>3431.2194</v>
+        <v>114074.03405</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5242.53095</v>
+        <v>59458.77629</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>6662.09367</v>
+        <v>5918.50487</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>3267.64571</v>
+        <v>8979.3318</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>13607.40631</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>4138.052460000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3770.662</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>54765.65904</v>
+        <v>76235.95876000001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>44050.41415</v>
+        <v>31500.53981</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>68380.99743</v>
+        <v>85463.42065</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>93219.84</v>
+        <v>82114.60919</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>120055.06897</v>
+        <v>45022.76043000001</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>167377.06163</v>
+        <v>167257.95664</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>126690.83806</v>
+        <v>110442.53533</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>133016.81084</v>
+        <v>150877.59344</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>249420.02437</v>
+        <v>259331.29802</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>282852.23707</v>
+        <v>220959.65917</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>416122.91093</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>341789.25868</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>803231.686</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>17489.67235</v>
+        <v>4455.6106</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4398.61495</v>
+        <v>4645.75588</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>5843.64776</v>
+        <v>8269.84211</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6474.45428</v>
+        <v>42927.67072</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>9474.51655</v>
+        <v>28621.0594</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>23229.13344</v>
+        <v>106370.02399</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>52206.90518</v>
+        <v>145759.78718</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>31681.85636</v>
+        <v>113643.49413</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>21966.97075</v>
+        <v>25947.48075</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>49827.47295</v>
+        <v>24610.79411</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>119258.02047</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>34767.6157</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>46161.958</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>167.69289</v>
+        <v>167.6405</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>169.62362</v>
+        <v>1042.10229</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>37.85525</v>
+        <v>4.67608</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>33.04342</v>
+        <v>8.786989999999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>194.15946</v>
+        <v>563.7262799999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>123.19836</v>
+        <v>148.13578</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>92.62418</v>
+        <v>208.91333</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>1495.64365</v>
+        <v>1733.84836</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>314.21135</v>
+        <v>752.0360700000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>24608.15192</v>
+        <v>1032.68962</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>472.69492</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>682.0204200000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>5930.638</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>17321.97946</v>
+        <v>4287.9701</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4228.99133</v>
+        <v>3603.65359</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>5805.79251</v>
+        <v>8265.166029999998</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6441.41086</v>
+        <v>42918.88372999999</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>9280.35709</v>
+        <v>28057.33312</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>23105.93508</v>
+        <v>106221.88821</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>52114.281</v>
+        <v>145550.87385</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>30186.21271</v>
+        <v>111909.64577</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>21652.7594</v>
+        <v>25195.44468</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>25219.32103</v>
+        <v>23578.10449</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>118785.32555</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>34085.59528</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>40231.32</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>9323.03674</v>
+        <v>3030.9424</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7322.130619999999</v>
+        <v>7115.2104</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>60807.67588</v>
+        <v>73119.14547</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>12050.9094</v>
+        <v>36975.91259000001</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>13271.09678</v>
+        <v>23532.72301</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>70470.28335000001</v>
+        <v>122403.91999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>32628.35018</v>
+        <v>58679.31018</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>60335.19009</v>
+        <v>105312.44652</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>24381.59786</v>
+        <v>22257.15314</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>83803.64380000001</v>
+        <v>58903.82381</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>68410.97368000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>25483.49787</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>49271.74</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>2493.36512</v>
+        <v>836.9184300000001</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>496.9777800000001</v>
+        <v>206.74486</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>1229.5679</v>
+        <v>0</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>804.41536</v>
+        <v>576.6642800000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>6025.30033</v>
+        <v>4506.769969999999</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>1779.05682</v>
+        <v>202.33924</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>2077.42656</v>
+        <v>0</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1836.12996</v>
+        <v>13.17206</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1636.28678</v>
+        <v>0</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1268.19867</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>50.66</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1101.3343</v>
+        <v>685.74352</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>317.67833</v>
+        <v>521.5792799999999</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1863.01973</v>
+        <v>1824.28147</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>957.4914299999999</v>
+        <v>911.26436</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1502.28643</v>
+        <v>1240.25422</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>3274.31161</v>
+        <v>3422.5735</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>3006.06803</v>
+        <v>1917.5366</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>3427.16605</v>
+        <v>3745.53616</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1286.82124</v>
+        <v>901.06211</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>4225.629279999999</v>
+        <v>1474.56704</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>12599.16997</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1278.30691</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>8550.082</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>5728.337320000001</v>
+        <v>1508.28045</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7004.45229</v>
+        <v>6593.63112</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>58447.67836999999</v>
+        <v>71088.11914</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>9863.850069999999</v>
+        <v>36064.64823</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>10964.39499</v>
+        <v>21715.80451</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>61170.67141</v>
+        <v>114474.57652</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>27843.22533</v>
+        <v>56559.43434000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>54830.59748</v>
+        <v>101566.91036</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>21258.64666</v>
+        <v>21342.91897</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>77941.72773999999</v>
+        <v>57429.25677</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>54543.60504</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>24154.53096</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>40721.658</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>62932.29465</v>
+        <v>77660.62696000001</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>41126.89848</v>
+        <v>29031.08529</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>13416.96931</v>
+        <v>20614.11729</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>87643.38488000001</v>
+        <v>88066.36731999999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>116258.48874</v>
+        <v>50111.09682</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>120135.91172</v>
+        <v>151224.06064</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>146269.39306</v>
+        <v>197523.01233</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>104363.47711</v>
+        <v>159208.64105</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>247005.39726</v>
+        <v>263021.62563</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>248876.06622</v>
+        <v>186666.62947</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>466969.95772</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>351073.37651</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>800121.904</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>11134.01046</v>
+        <v>11601.17152</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>13178.77185</v>
+        <v>11361.18969</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>16362.17232</v>
+        <v>14824.26395</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>18925.29914</v>
+        <v>16284.33495</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>23260.90453</v>
+        <v>19399.08198</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>32527.95354</v>
+        <v>30921.78894</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>33680.57674</v>
+        <v>38182.27652000001</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>32621.03201</v>
+        <v>40630.92374000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>59377.6933</v>
+        <v>62450.46059</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>74940.92272</v>
+        <v>69297.38220000001</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>76772.30992999999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>59486.69838</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>141935.477</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>51798.28419</v>
+        <v>66059.45543999999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>27948.12663</v>
+        <v>17669.8956</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2945.20301</v>
+        <v>5789.853340000001</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>68718.08574000001</v>
+        <v>71782.03237</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>92997.58421000002</v>
+        <v>30712.01484</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>87607.95818</v>
+        <v>120302.2717</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>112588.81632</v>
+        <v>159340.73581</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>71742.4451</v>
+        <v>118577.71731</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>187627.70396</v>
+        <v>200571.16504</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>173935.1435</v>
+        <v>117369.24727</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>390197.64779</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>291586.67813</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>658186.427</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>153</v>
+        <v>121</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>180</v>
+        <v>133</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>233</v>
+        <v>197</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>297</v>
+        <v>246</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>305</v>
+        <v>256</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>391</v>
+        <v>323</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>250</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>